--- a/ClubData.xlsx
+++ b/ClubData.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:G297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5320,6 +5320,4857 @@
         </is>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Robert#R.</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>30629.3</v>
+      </c>
+      <c r="D151" t="n">
+        <v>12291</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Langtur m/Atea</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>NordicSki</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Robert#R.#12291#30629.3#2021-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Espen#G.</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>9322.700000000001</v>
+      </c>
+      <c r="D152" t="n">
+        <v>6052</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Store Stokkavann</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Espen#G.#6052#9322.7#2021-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Lasse#F.</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>40886</v>
+      </c>
+      <c r="D153" t="n">
+        <v>3810</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>TDZ Stage 5: Longer Ride</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Lasse#F.#3810#40886.0#2021-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Thomas Rene#H.</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>36669.5</v>
+      </c>
+      <c r="D154" t="n">
+        <v>3754</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>1. Strength Development</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Thomas Rene#H.#3754#36669.5#2021-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Børge#O.</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>13236</v>
+      </c>
+      <c r="D155" t="n">
+        <v>4606</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Evening Activity</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>NordicSki</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Børge#O.#4606#13236.0#2021-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Anders#W.</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>8681.799999999999</v>
+      </c>
+      <c r="D156" t="n">
+        <v>3052</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Evening Run</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Anders#W.#3052#8681.8#2021-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Fredrik#L.</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>5834.4</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2183</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Evening Activity</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>NordicSki</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Fredrik#L.#2183#5834.4#2021-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Jo Wesche#F.</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>16773.2</v>
+      </c>
+      <c r="D158" t="n">
+        <v>5887</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Svigermor var på besøk</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>NordicSki</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Jo Wesche#F.#5887#16773.2#2021-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Tommy#M.</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>1493</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1246</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Night Walk</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Tommy#M.#1246#1493.0#2021-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Tom#B.</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>3242.4</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1989</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Morning Activity</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Tom#B.#1989#3242.4#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Jørgen#M.</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>1231.7</v>
+      </c>
+      <c r="D161" t="n">
+        <v>789</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Morning Walk</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Jørgen#M.#789#1231.7#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>fredrik#V.</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>4751.2</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1516</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Morning Run</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>fredrik#V.#1516#4751.2#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Tommy#R.</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>11096.4</v>
+      </c>
+      <c r="D163" t="n">
+        <v>3671</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Morning Run</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Tommy#R.#3671#11096.4#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Kristoffer#V.</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>1979.4</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1304</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Morning Walk</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Kristoffer#V.#1304#1979.4#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Sture#A.</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>20536.5</v>
+      </c>
+      <c r="D165" t="n">
+        <v>6207</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>4x(~2k+4x~500m) LT(-), R=90s/45s</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Sture#A.#6207#20536.5#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Monja#H.</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>5869.5</v>
+      </c>
+      <c r="D166" t="n">
+        <v>3751</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lunsjtur </t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Monja#H.#3751#5869.5#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Rolf Ove#H.</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>7167</v>
+      </c>
+      <c r="D167" t="n">
+        <v>3045</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Lunsjjogg med Marius "Marra" Lenes</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Rolf Ove#H.#3045#7167.0#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Jann#J.</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>8767.200000000001</v>
+      </c>
+      <c r="D168" t="n">
+        <v>3106</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Lunsjrunde</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Jann#J.#3106#8767.2#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Frode#J.</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>4363</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Styrke</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>WeightTraining</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Frode#J.#4363#0.0#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Mikael#S.</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>4791.5</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2555</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Lunch Walk 🌞❄</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Mikael#S.#2555#4791.5#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Bjørnar#S.</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>7421.8</v>
+      </c>
+      <c r="D171" t="n">
+        <v>2706</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>25x45/15</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Bjørnar#S.#2706#7421.8#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Per#J.</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>5423.3</v>
+      </c>
+      <c r="D172" t="n">
+        <v>5030</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Lunch Walk</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Per#J.#5030#5423.3#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Mona#K.</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>5040</v>
+      </c>
+      <c r="D173" t="n">
+        <v>2032</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Afternoon Run</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Mona#K.#2032#5040.0#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Thor Ivar ( Dokken )#D.</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>13808.1</v>
+      </c>
+      <c r="D174" t="n">
+        <v>3687</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Søndre Mangen</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>NordicSki</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Thor Ivar ( Dokken )#D.#3687#13808.1#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Håkon#H.</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>2257.7</v>
+      </c>
+      <c r="D175" t="n">
+        <v>900</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Oppvarming t styrke</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Håkon#H.#900#2257.7#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Håkon#H.</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1965</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Styrke @robust</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>WeightTraining</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Håkon#H.#1965#0.0#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Vibekke#A.</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>2359.5</v>
+      </c>
+      <c r="D177" t="n">
+        <v>2221</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Afternoon Run</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Vibekke#A.#2221#2359.5#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Atle#T.</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>4803</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Afternoon Ride</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Atle#T.#4803#0.0#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Tom#B.</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>4003</v>
+      </c>
+      <c r="D179" t="n">
+        <v>2720</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Afternoon Activity</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Tom#B.#2720#4003.0#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Berit Eleni#S.</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>3933.1</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2842</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Afternoon Walk</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Berit Eleni#S.#2842#3933.1#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Marte#H.</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>22433</v>
+      </c>
+      <c r="D181" t="n">
+        <v>7503</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Afternoon Run</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Marte#H.#7503#22433.0#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Mathias#J.</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>12296.8</v>
+      </c>
+      <c r="D182" t="n">
+        <v>4109</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Afternoon Run</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Mathias#J.#4109#12296.8#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Siw Hege A.#J.</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>6999.9</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2974</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Afternoon Run</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Siw Hege A.#J.#2974#6999.9#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Dag#K.</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>5065.4</v>
+      </c>
+      <c r="D184" t="n">
+        <v>3151</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Afternoon Walk</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Dag#K.#3151#5065.4#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Jørgen#M.</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>1644.5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1573</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Afternoon Walk</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Jørgen#M.#1573#1644.5#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Klaus#B.</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>9544.4</v>
+      </c>
+      <c r="D186" t="n">
+        <v>3596</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Ettermiddagstur i lysløypa.</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>NordicSki</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Klaus#B.#3596#9544.4#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Sigbjørn#H.</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>10513.8</v>
+      </c>
+      <c r="D187" t="n">
+        <v>3298</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Uinspirert jabbing i kulda</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Sigbjørn#H.#3298#10513.8#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Jan Chr#S.</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>31775.7</v>
+      </c>
+      <c r="D188" t="n">
+        <v>3619</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>12wk FTP Builder Week 12 Day 3</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Jan Chr#S.#3619#31775.7#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Cathrine Svenneny #K.</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Styrketrening</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Workout</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Cathrine Svenneny #K.#1800#0.0#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Egil#N.</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>7445.3</v>
+      </c>
+      <c r="D190" t="n">
+        <v>4292</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Skitur ved Elvelia før middag. m/Patrick</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>NordicSki</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Egil#N.#4292#7445.3#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Jon#R.</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>7835</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2585</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Lysløypa Eggevollen</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>NordicSki</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Jon#R.#2585#7835.0#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Gard#U.</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>7504.7</v>
+      </c>
+      <c r="D192" t="n">
+        <v>2709</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rolig tur på mølla.. </t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Gard#U.#2709#7504.7#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Anders#J.</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>4625.9</v>
+      </c>
+      <c r="D193" t="n">
+        <v>3184</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Afternoon Walk</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Anders#J.#3184#4625.9#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Julie Marie#S.</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>20084.3</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2839</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Jon Even Corneliussen [TEAM-J]'s Meetup</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Julie Marie#S.#2839#20084.3#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Erlend#M.</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>2013.3</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1315</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Afternoon Walk</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Erlend#M.#1315#2013.3#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Lars#K.</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>1171.6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>3340</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Afternoon Walk</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Lars#K.#3340#1171.6#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Sture#A.</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>5715.8</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1758</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Recovery jog</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Sture#A.#1758#5715.8#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Fredrik#S.</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>5875.4</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1712</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Afternoon Run</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Fredrik#S.#1712#5875.4#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Stian#S.</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>13777.7</v>
+      </c>
+      <c r="D199" t="n">
+        <v>5228</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Afternoon Activity</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>NordicSki</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Stian#S.#5228#13777.7#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Kjell Are#E.</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>15016.9</v>
+      </c>
+      <c r="D200" t="n">
+        <v>6029</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benstrekk </t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Kjell Are#E.#6029#15016.9#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Eric#G.</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>16030.2</v>
+      </c>
+      <c r="D201" t="n">
+        <v>5133</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Afternoon Run ☁️</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Eric#G.#5133#16030.2#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Lars#A.</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>40620.3</v>
+      </c>
+      <c r="D202" t="n">
+        <v>3615</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>TEAM VEGAN Mixed Salad (B)</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Lars#A.#3615#40620.3#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Tone#S.</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>40058.7</v>
+      </c>
+      <c r="D203" t="n">
+        <v>4286</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Watopia</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Tone#S.#4286#40058.7#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Lars#K.</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>6909.6</v>
+      </c>
+      <c r="D204" t="n">
+        <v>4957</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Måneskinnstur</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>NordicSki</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Lars#K.#4957#6909.6#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Per#J.</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" t="n">
+        <v>4208</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Per#J.#4208#0.0#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Tommy#M.</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>2362.3</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1789</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Evening Walk</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Tommy#M.#1789#2362.3#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Anders#F.</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>16668.4</v>
+      </c>
+      <c r="D207" t="n">
+        <v>3921</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Evening Ride</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Anders#F.#3921#16668.4#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>odny#K.</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" t="n">
+        <v>7730</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Intervallspinn m/Vegar. + Mobilitet og styrke</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>odny#K.#7730#0.0#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Marita#S.</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>6500.3</v>
+      </c>
+      <c r="D209" t="n">
+        <v>3769</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Evening Walk</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Marita#S.#3769#6500.3#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Espen#G.</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>6268.5</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1564</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Evening Ride</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Espen#G.#1564#6268.5#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Børge#R.</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>48602.7</v>
+      </c>
+      <c r="D211" t="n">
+        <v>4925</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>3x20 min sweet</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Børge#R.#4925#48602.7#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Anders#F.</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>15100.6</v>
+      </c>
+      <c r="D212" t="n">
+        <v>3747</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Evening Ride</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Anders#F.#3747#15100.6#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Jan Gisle#Y.</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>11217.2</v>
+      </c>
+      <c r="D213" t="n">
+        <v>4196</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Skate på Totenåsen i måneskinn</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>NordicSki</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Jan Gisle#Y.#4196#11217.2#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Per#J.</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1868</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Evening Activity</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>WeightTraining</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Per#J.#1868#0.0#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Jørgen Ørmen#A.</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>47064</v>
+      </c>
+      <c r="D215" t="n">
+        <v>4904</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>NCF Vintercup 2021 - Runde 3 - Herrer (A)</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Jørgen Ørmen#A.#4904#47064.0#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Mikael#S.</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>9114.4</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1161</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Watopia - uppvärmning</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Mikael#S.#1161#9114.4#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Thor Ivar ( Dokken )#D.</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>5067.8</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1535</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Evening Run</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Thor Ivar ( Dokken )#D.#1535#5067.8#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Tor#K.</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0</v>
+      </c>
+      <c r="D218" t="n">
+        <v>2814</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Styrke/mobilitet m/Vegar! (4-21)</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>WeightTraining</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Tor#K.#2814#0.0#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Bjørn#H.</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>440.9</v>
+      </c>
+      <c r="D219" t="n">
+        <v>570</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Sånn går det når bikkja ikke vil på tur</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Bjørn#H.#570#440.9#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Endre#V.</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>6069.7</v>
+      </c>
+      <c r="D220" t="n">
+        <v>4857</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Løpetur - Cyclemeter </t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Endre#V.#4857#6069.7#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Børge#O.</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>11384</v>
+      </c>
+      <c r="D221" t="n">
+        <v>3951</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Evening Run</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Børge#O.#3951#11384.0#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Mikael#S.</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>50379.2</v>
+      </c>
+      <c r="D222" t="n">
+        <v>4633</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>TDZ Stage 5: Longer Ride</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Mikael#S.#4633#50379.2#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Leila#L.</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D223" t="n">
+        <v>2108</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Litta intervall mellom kvartfinalene🤾🏽‍♀️</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Leila#L.#2108#6200.0#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Anders#W.</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>10121.1</v>
+      </c>
+      <c r="D224" t="n">
+        <v>3468</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Evening Run</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Anders#W.#3468#10121.1#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Lars#K.</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>6056.3</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1842</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Evening Run</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Lars#K.#1842#6056.3#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Thomas Rene#H.</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>14806.4</v>
+      </c>
+      <c r="D226" t="n">
+        <v>5685</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Til Sørsetra i måneskinn</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>NordicSki</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Thomas Rene#H.#5685#14806.4#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Tom#S.</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>32199</v>
+      </c>
+      <c r="D227" t="n">
+        <v>3123</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>REVO Social SUB2 (D)</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Tom#S.#3123#32199.0#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Kristian Martell#B.</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>6086.8</v>
+      </c>
+      <c r="D228" t="n">
+        <v>4651</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Evening Walk</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Kristian Martell#B.#4651#6086.8#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Tommy#M.</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>2410.6</v>
+      </c>
+      <c r="D229" t="n">
+        <v>2026</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Night Walk</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Tommy#M.#2026#2410.6#2021-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Egil#N.</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>18141.1</v>
+      </c>
+      <c r="D230" t="n">
+        <v>2292</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Watopia - før frokost</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Egil#N.#2292#18141.1#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Børge#H.</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0</v>
+      </c>
+      <c r="D231" t="n">
+        <v>3244</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Klatring </t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>RockClimbing</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Børge#H.#3244#0.0#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Tom#B.</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>3243.7</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1982</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Morning Activity</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>StandUpPaddling</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Tom#B.#1982#3243.7#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Vibekke#A.</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>8764.6</v>
+      </c>
+      <c r="D233" t="n">
+        <v>5245</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Morning Run</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Vibekke#A.#5245#8764.6#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Alexei#M.</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>7129.3</v>
+      </c>
+      <c r="D234" t="n">
+        <v>2397</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lunch Run </t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Alexei#M.#2397#7129.3#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Monja#H.</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>10245.7</v>
+      </c>
+      <c r="D235" t="n">
+        <v>3603</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Lunch Run</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Monja#H.#3603#10245.7#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Edmund Magnus#N.</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>32670.7</v>
+      </c>
+      <c r="D236" t="n">
+        <v>3630</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>All fremgang er fremgang 🤩</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Edmund Magnus#N.#3630#32670.7#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Per#J.</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>5550.2</v>
+      </c>
+      <c r="D237" t="n">
+        <v>6673</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Lunch Walk</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Per#J.#6673#5550.2#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Kjell Are#E.</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>9172.299999999999</v>
+      </c>
+      <c r="D238" t="n">
+        <v>3501</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Innsamling av D-vitamin</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Kjell Are#E.#3501#9172.3#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Espen#T.</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>9504.6</v>
+      </c>
+      <c r="D239" t="n">
+        <v>3091</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Rolig tur i kaldt vær</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Espen#T.#3091#9504.6#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Mikael#S.</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>3654.4</v>
+      </c>
+      <c r="D240" t="n">
+        <v>2066</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Lunch Walk</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Mikael#S.#2066#3654.4#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Klaus#B.</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>4476.2</v>
+      </c>
+      <c r="D241" t="n">
+        <v>4251</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Walk the dog</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Klaus#B.#4251#4476.2#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Edmund Magnus#N.</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>4468.4</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1934</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Lett jogg med skinne på</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Edmund Magnus#N.#1934#4468.4#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>David#R.</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>17364</v>
+      </c>
+      <c r="D243" t="n">
+        <v>4479</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Afternoon Activity</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>NordicSki</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>David#R.#4479#17364.0#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Espen#G.</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>3144</v>
+      </c>
+      <c r="D244" t="n">
+        <v>2311</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Afternoon Walk</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Espen#G.#2311#3144.0#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Anders#J.</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>5335.4</v>
+      </c>
+      <c r="D245" t="n">
+        <v>3435</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Afternoon Walk</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Anders#J.#3435#5335.4#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Hans Petter#H.</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>4123.2</v>
+      </c>
+      <c r="D246" t="n">
+        <v>3199</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Sen lunch med Elvis</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Hans Petter#H.#3199#4123.2#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Cathrine Svenneny #K.</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0</v>
+      </c>
+      <c r="D247" t="n">
+        <v>2100</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Styrketrening</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Workout</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Cathrine Svenneny #K.#2100#0.0#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Marita#S.</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>9636.5</v>
+      </c>
+      <c r="D248" t="n">
+        <v>32135</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Lunch Walk</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Marita#S.#32135#9636.5#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Tommy#R.</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>11040.9</v>
+      </c>
+      <c r="D249" t="n">
+        <v>3723</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Afternoon Run</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Tommy#R.#3723#11040.9#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Svein-Tore#A.</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>2952.7</v>
+      </c>
+      <c r="D250" t="n">
+        <v>3369</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Grønnmo</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Svein-Tore#A.#3369#2952.7#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Stian#S.</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>20998.7</v>
+      </c>
+      <c r="D251" t="n">
+        <v>7362</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Afternoon Activity</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>NordicSki</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Stian#S.#7362#20998.7#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Tom#B.</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>3896.8</v>
+      </c>
+      <c r="D252" t="n">
+        <v>2441</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Afternoon Activity</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Tom#B.#2441#3896.8#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Dag#K.</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>7649.5</v>
+      </c>
+      <c r="D253" t="n">
+        <v>4406</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Afternoon Walk</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Dag#K.#4406#7649.5#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Lars#A.</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>6041.7</v>
+      </c>
+      <c r="D254" t="n">
+        <v>4134</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Lars#A.#4134#6041.7#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>fredrik#V.</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>8333.700000000001</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2447</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Afternoon Run</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>fredrik#V.#2447#8333.7#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Amalie Helleberg#R.</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>6106.5</v>
+      </c>
+      <c r="D256" t="n">
+        <v>3508</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Ny pers 🤩🤩</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Amalie Helleberg#R.#3508#6106.5#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Mathias#J.</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>13023.4</v>
+      </c>
+      <c r="D257" t="n">
+        <v>4721</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Afternoon Run</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Mathias#J.#4721#13023.4#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Egil#N.</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>8564.299999999999</v>
+      </c>
+      <c r="D258" t="n">
+        <v>5136</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Skitur ved Ælvelia før middag. m/Anita &amp; Patrick</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>NordicSki</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Egil#N.#5136#8564.3#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Jan Chr#S.</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>43231.8</v>
+      </c>
+      <c r="D259" t="n">
+        <v>4823</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>12wk FTP Builder Week 12 Day 4</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Jan Chr#S.#4823#43231.8#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Linda#B.</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>31441.4</v>
+      </c>
+      <c r="D260" t="n">
+        <v>8875</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Watopia</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Linda#B.#8875#31441.4#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Siw Hege A.#J.</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>1647.5</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1251</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Afternoon Walk</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Siw Hege A.#J.#1251#1647.5#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Sture#A.</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>16402.7</v>
+      </c>
+      <c r="D262" t="n">
+        <v>5098</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Afternoon Run ⛸️</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Sture#A.#5098#16402.7#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Siw Hege A.#J.</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>1080.8</v>
+      </c>
+      <c r="D263" t="n">
+        <v>721</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Afternoon Walk</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Siw Hege A.#J.#721#1080.8#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Thomas Rene#H.</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>9573.700000000001</v>
+      </c>
+      <c r="D264" t="n">
+        <v>3942</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Watopia</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>VirtualRun</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Thomas Rene#H.#3942#9573.7#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Tone#S.</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>40075.2</v>
+      </c>
+      <c r="D265" t="n">
+        <v>4157</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Tone#S.#4157#40075.2#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Gard#U.</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>10892.7</v>
+      </c>
+      <c r="D266" t="n">
+        <v>3607</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>4x 5:00 @ 100-102% of FTP/CP</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Gard#U.#3607#10892.7#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Peter#T.</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>8267.200000000001</v>
+      </c>
+      <c r="D267" t="n">
+        <v>3202</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Evening Activity</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>NordicSki</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Peter#T.#3202#8267.2#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Jørgen Ørmen#A.</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>106063</v>
+      </c>
+      <c r="D268" t="n">
+        <v>12301</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Multitasking</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Jørgen Ørmen#A.#12301#106063.0#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Marte#H.</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>10472.5</v>
+      </c>
+      <c r="D269" t="n">
+        <v>3438</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Evening Run</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Marte#H.#3438#10472.5#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Anders#F.</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>18244.2</v>
+      </c>
+      <c r="D270" t="n">
+        <v>3643</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Evening Ride</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Anders#F.#3643#18244.2#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Jan Gisle#Y.</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>34880.3</v>
+      </c>
+      <c r="D271" t="n">
+        <v>4555</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>London rolig med et par drag</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Jan Gisle#Y.#4555#34880.3#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Renate#W.</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>2538</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1866</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Evening Walk</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Renate#W.#1866#2538.0#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Bjørnar#S.</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>11147.8</v>
+      </c>
+      <c r="D273" t="n">
+        <v>3569</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Evening Run</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Bjørnar#S.#3569#11147.8#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Børge#H.</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>46301.6</v>
+      </c>
+      <c r="D274" t="n">
+        <v>6019</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Watopia</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Børge#H.#6019#46301.6#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Eric#G.</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>3731.8</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1281</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Evening Activity ☁️</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>NordicSki</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Eric#G.#1281#3731.8#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Håkon#H.</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>35940.9</v>
+      </c>
+      <c r="D276" t="n">
+        <v>4045</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>3x15 min s3, 90sp</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Håkon#H.#4045#35940.9#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Eric#G.</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>11511</v>
+      </c>
+      <c r="D277" t="n">
+        <v>3590</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Evening Activity ☁️</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>NordicSki</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Eric#G.#3590#11511.0#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Frode#J.</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>29053.1</v>
+      </c>
+      <c r="D278" t="n">
+        <v>3600</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rulle økt </t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Frode#J.#3600#29053.1#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Sevald#L.</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>5213.1</v>
+      </c>
+      <c r="D279" t="n">
+        <v>2117</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Evening Run</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Sevald#L.#2117#5213.1#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Michael Nicolai Hartmann#P.</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>30064</v>
+      </c>
+      <c r="D280" t="n">
+        <v>3316</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>PACK Social + KOM After Party (D)</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Michael Nicolai Hartmann#P.#3316#30064.0#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Lasse#F.</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>42131.4</v>
+      </c>
+      <c r="D281" t="n">
+        <v>3812</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Rolig i Watopia</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Lasse#F.#3812#42131.4#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Thor Ivar ( Dokken )#D.</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>48856.8</v>
+      </c>
+      <c r="D282" t="n">
+        <v>4971</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>3x10   40/20</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Thor Ivar ( Dokken )#D.#4971#48856.8#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Sigbjørn#H.</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>15292.1</v>
+      </c>
+      <c r="D283" t="n">
+        <v>5245</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Brøyt ut av joggemønsteret med en rolig skitur i måneskinn...</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>NordicSki</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Sigbjørn#H.#5245#15292.1#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Espen#G.</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>6200.6</v>
+      </c>
+      <c r="D284" t="n">
+        <v>3596</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Mosvannet mot klokka!!</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Espen#G.#3596#6200.6#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Robert#R.</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>15041.8</v>
+      </c>
+      <c r="D285" t="n">
+        <v>3529</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Night classic</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>NordicSki</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Robert#R.#3529#15041.8#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Tommy#M.</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>1501.8</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1292</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Night Walk</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Tommy#M.#1292#1501.8#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Børge#R.</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>36646.4</v>
+      </c>
+      <c r="D287" t="n">
+        <v>3719</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Pyramide -2-3-4-5-6-5-4-3-2 min</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Børge#R.#3719#36646.4#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Sture#A.</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>17114.3</v>
+      </c>
+      <c r="D288" t="n">
+        <v>4828</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Morning Run (Pre 08!)</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Sture#A.#4828#17114.3#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Kristoffer#V.</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>2035.1</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1412</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Morning Walk</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Kristoffer#V.#1412#2035.1#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Sture#A.</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>800</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>Tm adj</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Sture#A.#1#800.0#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Aleksander#V.</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>2660.2</v>
+      </c>
+      <c r="D291" t="n">
+        <v>649</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Snek meg gjennom en byggeplass på snøen</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Aleksander#V.#649#2660.2#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Per#J.</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0</v>
+      </c>
+      <c r="D292" t="n">
+        <v>3744</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Per#J.#3744#0.0#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Kjell Are#E.</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>5217.6</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1717</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Morning Run</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Kjell Are#E.#1717#5217.6#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Per#J.</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0</v>
+      </c>
+      <c r="D294" t="n">
+        <v>5238</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Styrketrening</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>WeightTraining</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Per#J.#5238#0.0#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Julie Marie#S.</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>20064</v>
+      </c>
+      <c r="D295" t="n">
+        <v>2159</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>Aktiv lunsj</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>VirtualRide</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Julie Marie#S.#2159#20064.0#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Joakim#N.</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="D296" t="n">
+        <v>2538</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Lunch Activity</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Workout</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Joakim#N.#2538#186.4#2021-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Christine Helena Hilsen#O.</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>405.7</v>
+      </c>
+      <c r="D297" t="n">
+        <v>360</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Lunch Run</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Christine Helena Hilsen#O.#360#405.7#2021-01-29</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
